--- a/Day01/TSI_TIM_Reconstruction.xlsx
+++ b/Day01/TSI_TIM_Reconstruction.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MATH315\Day01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="984"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7440" tabRatio="984"/>
   </bookViews>
   <sheets>
     <sheet name="TSI_TIM_Reconstruction" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TSI Reconstruction from IPCC AR5 (based on Krivova et al., JGR, 2010, Ball et al., A&amp;A, 2012, &amp; Yeo et al., A&amp;A, 2014)</t>
   </si>
@@ -40,11 +44,26 @@
   <si>
     <t>[W/m^2]</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Interquartile range</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,8 +595,24 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B7:E412" totalsRowShown="0">
+  <autoFilter ref="B7:E412"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Year"/>
+    <tableColumn id="2" name="Column1"/>
+    <tableColumn id="3" name="TSI"/>
+    <tableColumn id="4" name="[W/m^2]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,7 +658,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,7 +693,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -867,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E412"/>
+  <dimension ref="B1:H412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,9 +914,9 @@
     <col min="2" max="2" width="9.28515625"/>
     <col min="3" max="3" width="13.85546875"/>
     <col min="4" max="4" width="11.5703125"/>
-    <col min="5" max="5" width="10"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="8.7109375"/>
-    <col min="7" max="7" width="11.5703125"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125"/>
     <col min="9" max="9" width="7.28515625"/>
     <col min="10" max="10" width="5.140625"/>
@@ -909,67 +944,98 @@
     <col min="33" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <f>MAX(Table2[TSI]) - MIN(Table2[TSI])</f>
+        <v>2.2587000000000899</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1610.5</v>
       </c>
       <c r="D8">
         <v>1359.8886</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <f>_xlfn.QUARTILE.INC(Table2[TSI],3) - _xlfn.QUARTILE.INC(Table2[TSI],1)</f>
+        <v>0.62850000000003092</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1611.5</v>
       </c>
       <c r="D9">
         <v>1360.1994</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <f>_xlfn.VAR.S(Table2[TSI])</f>
+        <v>0.2169720761838293</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1612.5</v>
       </c>
       <c r="D10">
         <v>1360.424</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f>_xlfn.STDEV.S(Table2[TSI])</f>
+        <v>0.46580261504614728</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1613.5</v>
       </c>
@@ -977,7 +1043,7 @@
         <v>1360.7239999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1614.5</v>
       </c>
@@ -985,7 +1051,7 @@
         <v>1360.8667</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1615.5</v>
       </c>
@@ -993,7 +1059,7 @@
         <v>1360.7973</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1616.5</v>
       </c>
@@ -1001,7 +1067,7 @@
         <v>1360.4241999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1617.5</v>
       </c>
@@ -1009,7 +1075,7 @@
         <v>1360.1043</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1618.5</v>
       </c>
@@ -4192,5 +4258,8 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Day01/TSI_TIM_Reconstruction.xlsx
+++ b/Day01/TSI_TIM_Reconstruction.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MATH315\Day01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\MATH315\Day01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCAAF05-95A4-4A6C-81E3-CFB59FB1D5F8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7440" tabRatio="984"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7440" tabRatio="984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSI_TIM_Reconstruction" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,14 +610,2480 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Earth's TSI in 150 years, from 1864 to 2014</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>TSI_TIM_Reconstruction!$B$262:$B$412</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>1864.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1865.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1866.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1867.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1868.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1869.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1870.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1871.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1872.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1873.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1874.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1875.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1876.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1877.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1878.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1879.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1880.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1881.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1882.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1883.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1884.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1885.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1886.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1887.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1888.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1889.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1890.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1891.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1892.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1893.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1894.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1895.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1896.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1897.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1898.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1899.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1900.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1901.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1902.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1903.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1904.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1905.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1906.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1907.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1908.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1909.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1910.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1911.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1912.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1913.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1914.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1915.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1916.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1917.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1918.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1919.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1920.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1921.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1922.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1923.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1924.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1925.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1926.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1927.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1928.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1929.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1930.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1931.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1932.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1933.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1934.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1935.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1936.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1937.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1938.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1939.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1940.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1941.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1942.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1943.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1944.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1945.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1946.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1947.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1948.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1949.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1950.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1951.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1952.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1953.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1954.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1955.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1956.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1957.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1958.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1959.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1960.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1961.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1962.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1963.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1964.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1965.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1966.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1967.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1968.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1969.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1970.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1971.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1972.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1973.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1974.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1975.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1976.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1977.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1978.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1979.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1980.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1981.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1982.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1983.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1984.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1985.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1986.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1987.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1988.5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1989.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1990.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1991.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1992.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1993.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1994.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1995.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1996.5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1997.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1998.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1999.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2000.5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2001.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2002.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2003.5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2004.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2005.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2006.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2007.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2008.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2009.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2010.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2011.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2012.5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2013.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2014.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TSI_TIM_Reconstruction!$D$262:$D$412</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>1360.5927999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1360.5840000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1360.5643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1360.4498000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1360.4348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1360.6792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1360.5112999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1360.9019000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1360.8076000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1360.8284000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1360.7197000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1360.6065000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1360.5062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360.4768999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1360.4179999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1360.3951</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1360.4299000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1360.6685</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1360.5781999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1360.4935</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1360.8503000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1360.7362000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1360.6161999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1360.4798000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1360.4476</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1360.415</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1360.4145000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1360.5736999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1360.7511</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1360.9767999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1361.2473</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1361.0984000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1360.8842999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1360.6967999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1360.6288999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1360.595</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1360.5154</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1360.4023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1360.3697</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1360.4521999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1360.7963999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1360.6007999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1360.9223999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1360.7135000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1360.8639000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1360.7070000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1360.6741999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1360.4837</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1360.3894</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1360.4102</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1360.4743000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1360.8167000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1361.22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1361.3501000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1361.6103000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1361.2529</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1361.0071</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1360.8090999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1360.6203</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1360.5382</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1360.5066999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1360.6052</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1360.8675000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1361.1845000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1360.9586999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1360.9267</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1361.07</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1360.7813000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1360.6013</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1360.5093999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1360.5193999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1360.6613</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1361.2148999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1361.3708999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1361.3090999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1361.4126000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1361.231</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1361.1358</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1360.9409000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1360.6797999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1360.6418000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1360.8587</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1360.8995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1361.4033999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1361.7945999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1361.6241</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1361.5234</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1360.9888000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1361.0492999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1360.8998999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1360.7375999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1360.8317999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1361.1858</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1361.6648</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1362.1473000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1361.8882000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1361.8268</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1361.5295000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1361.0907</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1360.999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1360.8612000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1360.7765999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1360.8042</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1361.1223</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1361.3516</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1361.2862</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1361.3974000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1361.3217999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1361.2751000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1361.0402999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1360.8789999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1360.7652</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1360.8543</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1361.0019</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1361.5418999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1361.8655000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1361.8027999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1361.8154</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1361.3702000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1361.3479</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1360.8258000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1360.7765999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1360.7846999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1360.7900999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1361.2933</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1361.7175999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1361.7257</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1361.8188</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1361.7360000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1361.1715999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1360.9115999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1360.8479</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1360.7256</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1360.8269</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1361.1886</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1361.412</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1361.6178</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1361.5578</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1361.5881999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1361.02</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1360.9186</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1360.7521999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1360.6731</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1360.5710999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1360.538</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1360.5567000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1360.8024</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1361.0743</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1361.241</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1361.3588</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1361.3959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A4F-45AD-9E1E-795E4C80DD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="197996768"/>
+        <c:axId val="305155584"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>TSI_TIM_Reconstruction!$B$262:$B$412</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="151"/>
+                      <c:pt idx="0">
+                        <c:v>1864.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1865.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1866.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1867.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1868.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1869.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1870.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1871.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1872.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1873.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1874.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1875.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1876.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1877.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1878.5</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1879.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1880.5</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1881.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1882.5</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1883.5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1884.5</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1885.5</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1886.5</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1887.5</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1888.5</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1889.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1890.5</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1891.5</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1892.5</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1893.5</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1894.5</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1895.5</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1896.5</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1897.5</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1898.5</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1899.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1900.5</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1901.5</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1902.5</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1903.5</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1904.5</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1905.5</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1906.5</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>1907.5</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>1908.5</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1909.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1910.5</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1911.5</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1912.5</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1913.5</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1914.5</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1915.5</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1916.5</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1917.5</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1918.5</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1919.5</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1920.5</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>1921.5</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>1922.5</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>1923.5</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>1924.5</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>1925.5</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>1926.5</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>1927.5</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>1928.5</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>1929.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>1930.5</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>1931.5</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>1932.5</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>1933.5</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>1934.5</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>1935.5</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>1936.5</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>1937.5</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>1938.5</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>1939.5</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>1940.5</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>1941.5</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1942.5</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>1943.5</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>1944.5</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>1945.5</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>1946.5</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>1947.5</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>1948.5</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>1949.5</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>1950.5</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>1951.5</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>1952.5</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>1953.5</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>1954.5</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>1955.5</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>1956.5</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>1957.5</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>1958.5</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>1959.5</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>1960.5</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>1961.5</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>1962.5</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>1963.5</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1964.5</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>1965.5</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>1966.5</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>1967.5</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>1968.5</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>1969.5</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>1970.5</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>1971.5</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>1972.5</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>1973.5</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>1974.5</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>1975.5</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>1976.5</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>1977.5</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>1978.5</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>1979.5</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>1980.5</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>1981.5</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>1982.5</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>1983.5</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>1984.5</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>1985.5</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>1986.5</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>1987.5</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>1988.5</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>1989.5</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>1990.5</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>1991.5</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>1992.5</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>1993.5</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>1994.5</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>1995.5</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>1996.5</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>1997.5</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>1998.5</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>1999.5</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>2000.5</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>2001.5</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>2002.5</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>2003.5</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>2004.5</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>2005.5</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>2006.5</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>2007.5</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>2008.5</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>2009.5</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>2010.5</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>2011.5</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>2012.5</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>2013.5</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>2014.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>TSI_TIM_Reconstruction!$C$262:$C$412</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="151"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7A4F-45AD-9E1E-795E4C80DD5E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="197996768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305155584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="305155584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TSI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197996768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B371A0-5706-4F02-8AF1-FECC39B72519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B7:E412" totalsRowShown="0">
-  <autoFilter ref="B7:E412"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B7:E412" totalsRowShown="0">
+  <autoFilter ref="B7:E412" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Year"/>
-    <tableColumn id="2" name="Column1"/>
-    <tableColumn id="3" name="TSI"/>
-    <tableColumn id="4" name="[W/m^2]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TSI"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[W/m^2]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -691,6 +3165,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -726,6 +3217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -901,11 +3409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H412"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H266" sqref="H266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4258,8 +6766,9 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>